--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -130,9 +130,6 @@
     <t>Anant</t>
   </si>
   <si>
-    <t>Anant@1992</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Men Tshirt</t>
+  </si>
+  <si>
+    <t>Nitu@2023</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,13 +647,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -667,49 +667,49 @@
         <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -720,10 +720,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -748,10 +748,10 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -779,7 +779,7 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -807,13 +807,13 @@
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -884,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -910,7 +910,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -936,7 +936,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -956,11 +956,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -70,99 +70,6 @@
     <t>TC_003</t>
   </si>
   <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>TC_007</t>
-  </si>
-  <si>
-    <t>TC_008</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>Register User</t>
-  </si>
-  <si>
-    <t>Login User with correct email and password</t>
-  </si>
-  <si>
-    <t>Login User with incorrect email and password</t>
-  </si>
-  <si>
-    <t>Logout User</t>
-  </si>
-  <si>
-    <t>Register User with existing email</t>
-  </si>
-  <si>
-    <t>Contact Us Form</t>
-  </si>
-  <si>
-    <t>Verify Test Case Page</t>
-  </si>
-  <si>
-    <t>Verify All Products and product detail page</t>
-  </si>
-  <si>
-    <t>Search Product</t>
-  </si>
-  <si>
-    <t>Verify Subscription in home page</t>
-  </si>
-  <si>
-    <t>Verify Subscription in Cart page</t>
-  </si>
-  <si>
-    <t>Anant</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Binekar</t>
-  </si>
-  <si>
-    <t>CTS Comapany</t>
-  </si>
-  <si>
-    <t>Plot No 83</t>
-  </si>
-  <si>
-    <t>Housing society</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Maharastra</t>
-  </si>
-  <si>
-    <t>Nagpur</t>
-  </si>
-  <si>
-    <t>441123</t>
-  </si>
-  <si>
-    <t>9284361879</t>
-  </si>
-  <si>
     <t>TestData_14</t>
   </si>
   <si>
@@ -172,31 +79,19 @@
     <t>TestData_16</t>
   </si>
   <si>
-    <t>anantbinekar@gmail.com</t>
-  </si>
-  <si>
-    <t>hari@gmail.com</t>
-  </si>
-  <si>
-    <t>Gtdryui</t>
-  </si>
-  <si>
     <t>dt7updg@gmail.com</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Testing only</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Men Tshirt</t>
-  </si>
-  <si>
     <t>Nitu@2023</t>
+  </si>
+  <si>
+    <t>Log-in with valid username and password</t>
+  </si>
+  <si>
+    <t>Log-in with incorrect username and incorrect password</t>
+  </si>
+  <si>
+    <t>Log-in with correct username and empty password</t>
   </si>
 </sst>
 </file>
@@ -582,13 +477,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
@@ -647,13 +542,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -661,69 +556,37 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -731,28 +594,17 @@
         <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -769,18 +621,9 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -797,24 +640,12 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -829,12 +660,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -853,12 +680,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -877,15 +700,9 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -903,15 +720,9 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -929,15 +740,9 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -956,13 +761,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="E2" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>dt7updg@gmail.com</t>
   </si>
   <si>
-    <t>Nitu@2023</t>
-  </si>
-  <si>
     <t>Log-in with valid username and password</t>
   </si>
   <si>
@@ -92,13 +89,49 @@
   </si>
   <si>
     <t>Log-in with correct username and empty password</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>Login-Handles case sensitive</t>
+  </si>
+  <si>
+    <t>Registration-Sign-in</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>XXXXXX@XXXXXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +151,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,10 +202,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -172,8 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,14 +521,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -556,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -580,13 +624,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -594,14 +638,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" s="6"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -621,7 +667,9 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
@@ -640,7 +688,9 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -660,10 +710,18 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -680,8 +738,12 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -700,7 +762,9 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -720,7 +784,9 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -740,7 +806,9 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -761,9 +829,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>